--- a/testing_slots.xlsx
+++ b/testing_slots.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valwur0b\Desktop\mindsphere\GCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAABC74-004C-44BA-882A-E260445CE4FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE85F699-2BC0-4C94-9C19-EBD596723E1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Slide1" sheetId="1" r:id="rId1"/>
+    <sheet name="Slide2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>DATUM</t>
   </si>
@@ -103,6 +104,9 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>PUE</t>
   </si>
 </sst>
 </file>
@@ -481,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,4 +856,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E7C580-8567-441C-9E0C-4BE4A43C9316}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>